--- a/excel/Cálculos - Boost.xlsx
+++ b/excel/Cálculos - Boost.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julio Lima\Dropbox\Projeto de Potência\Planilhas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julio Lima\Dropbox\Projeto de Potência\Git\Conversor-Boost\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -242,20 +242,20 @@
     </font>
     <font>
       <b/>
-      <sz val="20"/>
-      <color rgb="FFFF0066"/>
+      <sz val="13"/>
+      <color rgb="FFFF5D8B"/>
       <name val="DejaVu Math TeX Gyre"/>
       <charset val="1"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="20"/>
       <color rgb="FFFF5D8B"/>
-      <name val="DejaVu Math TeX Gyre"/>
-      <charset val="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -274,6 +274,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -287,7 +293,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -298,16 +304,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3755,10 +3763,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:S182"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:G4"/>
+      <selection activeCell="C1" sqref="C1:S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3769,44 +3780,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
     </row>
     <row r="2" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
     </row>
     <row r="4" spans="2:19" ht="73.5" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
@@ -3874,25 +3885,26 @@
       </c>
     </row>
     <row r="17" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="14">
         <f>Req</f>
         <v>18.18</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="15" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="18" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="14">
+        <f>P</f>
         <v>70</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="14" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3914,7 +3926,7 @@
       </c>
     </row>
     <row r="25" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="2:6" s="1" customFormat="1" ht="73.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:6" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="8" t="s">
         <v>13</v>
       </c>
@@ -4404,17 +4416,17 @@
       <c r="C182" s="10"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <protectedRanges>
-    <protectedRange sqref="C6:C10" name="Intervalo4"/>
+    <protectedRange sqref="C49:C55" name="Intervalo3"/>
+    <protectedRange sqref="C6:C10" name="Intervalo1"/>
     <protectedRange sqref="C30" name="Intervalo2"/>
-    <protectedRange sqref="C149:C150" name="Intervalo1"/>
-    <protectedRange sqref="C17:C18" name="Intervalo3"/>
   </protectedRanges>
   <mergeCells count="1">
     <mergeCell ref="C1:S2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555551" footer="0.51180555555555551"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="22" firstPageNumber="0" fitToWidth="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
